--- a/aaaaaaaaa.xlsx
+++ b/aaaaaaaaa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,62 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Disco Precio</t>
+          <t>Carrefour Precio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Disco Precio s/ Dto</t>
+          <t>Carrefour Precio s/ Dto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Farmacity Precio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Farmacity Precio s/ Dto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Libertad Precio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Libertad Precio s/ Dto</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Super Mami Precio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Super Mami Precio s/ Dto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Lider Precio</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Lider Precio s/ Dto</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ferniplast Precio</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Ferniplast Precio s/ Dto</t>
         </is>
       </c>
     </row>
@@ -464,20 +514,114 @@
           <t>Ketchup Hellmanns 250 Gr</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$ 1.967,00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$ 1.967,00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>URL error</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>URL error</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7799155000197</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7790070431509 </t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agua Sin Gas Villavicencio 2 L</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>Arroz Parboil Luchetti 1 Kg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$ 2.599,00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$ 2.599,00</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$ 3.125,00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$ 3.125,00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>URL error</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>URL error</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
